--- a/perl/usable/pl/tools_activity_ah_clhlg/彩铃.xlsx
+++ b/perl/usable/pl/tools_activity_ah_clhlg/彩铃.xlsx
@@ -11,6 +11,47 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>铃音编号</t>
+  </si>
+  <si>
+    <t>铃音名称</t>
+  </si>
+  <si>
+    <t>歌手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">价格 </t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>给我一首歌的时间</t>
+  </si>
+  <si>
+    <t>周杰伦</t>
+  </si>
+  <si>
+    <t>http://61.132.134.128/colorring/wav/sys/1490173.wav</t>
+  </si>
+  <si>
+    <t>当你老了(2015央视春节联欢晚会)</t>
+  </si>
+  <si>
+    <t>莫文蔚</t>
+  </si>
+  <si>
+    <t>http://61.132.134.128/colorring/wav/sys/1707405.wav</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +382,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>810034570233</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>810028400008</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>